--- a/Asistencias/asistencia.xlsx
+++ b/Asistencias/asistencia.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,28 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Emerson Aldair P矇rez Rivera</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>202500000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-06-17</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>07:46:11</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Asistencias/asistencia.xlsx
+++ b/Asistencias/asistencia.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,6 +465,270 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aldair Rivera</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>202500001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11:38:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Emerson Aldair P矇rez Rivera</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>202500000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11:39:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>fasdfasdfasdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>202500002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-06-18</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15:27:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aldair Rivera</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>202500001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12:02:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>fasdfasdfasdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>202500002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12:03:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>zdgfasdfasdf</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>202500003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12:03:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>weradfasd</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>202500004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-06-24</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12:03:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Emerson ALdair P矇rez Rivera</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>202500000</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14:11:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>zdgfasdfasdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>202500003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14:12:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>weradfasd</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>202500004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14:12:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Aldair Rivera</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>202500001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15:11:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>fasdfasdfasdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>202500002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-06-26</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15:11:21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
